--- a/設計.xlsx
+++ b/設計.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="要件定義" sheetId="1" r:id="rId1"/>
     <sheet name="画面遷移" sheetId="2" r:id="rId2"/>
+    <sheet name="名前" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="102">
   <si>
     <t>ゲーム制作</t>
     <rPh sb="3" eb="5">
@@ -376,16 +377,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Load Game → ⑧Save Date選択画面</t>
-    <rPh sb="22" eb="24">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>New Game →　③ステージ画面（シューティング面）</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -446,6 +437,355 @@
     <rPh sb="5" eb="7">
       <t>バショ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>済</t>
+    <rPh sb="0" eb="1">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load Game → ⑧Load Date選択画面</t>
+    <rPh sb="22" eb="24">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clere →　条件未達成　②マップ画面（ステージ選択画面）</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ミタッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　　　　条件達成　⑤エンディング画面</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　　↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>負け　→　Game Over ②マップ画面戻る</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン押したら弾が出る</t>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被弾したら負け</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自機</t>
+    <rPh sb="0" eb="2">
+      <t>ジキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Operation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clownpiece</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Operation.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clownpiece.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fairy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Faily.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Character</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Character.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一目標！</t>
+    <rPh sb="0" eb="2">
+      <t>ダイイチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターを表示して敵を倒せるように！</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第二目標！</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>２</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第三目標！</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>３</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第四目標！</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヨン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オプションや弾の数を増やして難易度調整！</t>
+    <rPh sb="6" eb="7">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル、マップ等の実装！</t>
+    <rPh sb="8" eb="9">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シナリオとクリア目標設定、セーブ機能追加！</t>
+    <rPh sb="16" eb="18">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第五目標！</t>
+    <rPh sb="0" eb="2">
+      <t>ダイゴ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンディング！インストーラ作成！</t>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>余裕があれば</t>
+    <rPh sb="0" eb="2">
+      <t>ヨユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコアや設定画面作成、ステージギミック追加！</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bullet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bullet.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Winmain</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Winmain.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>描画</t>
+    <rPh sb="0" eb="2">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Drawing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Drawing.cpp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -813,13 +1153,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -828,7 +1168,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4667250" y="8191500"/>
+          <a:off x="4667250" y="8201025"/>
           <a:ext cx="3886200" cy="3124200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -946,6 +1286,147 @@
               </a:solidFill>
             </a:rPr>
             <a:t>上に選択できる場所を作る</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4714875" y="11934825"/>
+          <a:ext cx="3886200" cy="3124200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　　　　　　　　　　　　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2D</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>縦</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>STG</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
             <a:solidFill>
@@ -1378,15 +1859,15 @@
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
         <v>51</v>
-      </c>
-      <c r="D27" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1398,14 +1879,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K69"/>
+  <dimension ref="B2:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1432,6 +1914,9 @@
       <c r="C5" t="s">
         <v>34</v>
       </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6">
@@ -1440,6 +1925,9 @@
       <c r="C6" t="s">
         <v>35</v>
       </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7">
@@ -1448,8 +1936,11 @@
       <c r="C7" t="s">
         <v>39</v>
       </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1459,6 +1950,9 @@
       <c r="C8" t="s">
         <v>36</v>
       </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B9">
@@ -1467,8 +1961,11 @@
       <c r="C9" t="s">
         <v>37</v>
       </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
       <c r="K9" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
@@ -1478,6 +1975,9 @@
       <c r="C10" t="s">
         <v>38</v>
       </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
@@ -1486,6 +1986,9 @@
       <c r="C11" t="s">
         <v>41</v>
       </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
       <c r="K11" t="s">
         <v>46</v>
       </c>
@@ -1495,12 +1998,15 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1513,18 +2019,28 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E25" t="str">
         <f>C12</f>
         <v>⑧Load Data選択画面</v>
       </c>
     </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.15">
       <c r="K32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="5:5" x14ac:dyDescent="0.15">
@@ -1535,13 +2051,56 @@
     </row>
     <row r="55" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E69" t="str">
         <f>C7</f>
         <v>③ステージ画面（シューティング面）</v>
+      </c>
+    </row>
+    <row r="75" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="K75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="K76" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="K78" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E90" t="str">
+        <f>C9</f>
+        <v>⑤エンディング画面</v>
+      </c>
+    </row>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E91" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E92" t="str">
+        <f>C10</f>
+        <v>⑥スタッフロール画面</v>
+      </c>
+    </row>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E93" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E94" t="str">
+        <f>C5</f>
+        <v>①タイトル画面</v>
       </c>
     </row>
   </sheetData>
@@ -1550,4 +2109,164 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>